--- a/biology/Médecine/Articulation_subtalaire/Articulation_subtalaire.xlsx
+++ b/biology/Médecine/Articulation_subtalaire/Articulation_subtalaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'articulation subtalaire (ou articulation talo-calcanéenne) est l'articulation plane du pied qui unit le talus au calcanéus les deux premiers os du tarse.
 </t>
@@ -511,7 +523,9 @@
           <t>Surfaces articulaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">l'articulation subtalaire est constituées de trois paires de surfaces articulaire formant les articulations talo-calcanéennes postérieure, moyenne et antérieure.
 L'articulation postérieure est située à l'arrière du sinus du tarse et les deux autres à l'avant.
@@ -547,7 +561,9 @@
           <t>Moyens d'union</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La capsule de l'articulation est en continuité avec les capsules des articulations  talo-calcanéo-naviculaire et calcanéo-cuboïdienne. Elle est constituée de fibres courtes. 
 Le ligament principal de l'articulation est le ligament talo-calcanéen interosseux qui forme une bande épaisse et solide constituée de deux faisceaux partiellement joints qui se situent dans le sinus du tarse.
@@ -583,7 +599,9 @@
           <t>Anatomie fonctionnelle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'articulation subtalaire permet l'inversion et l'éversion du pied.
 </t>
@@ -614,10 +632,12 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'articulation subtalaire est particulièrement sensible à l'arthrite, surtout lorsqu'elle a déjà subie des entorses ou des fractures. Les symptômes de l'arthrite subtalaire comprennent la douleur lors de la marche, la perte de mouvement dans l'amplitude de mouvement de l'articulation et la difficulté à marcher sur des surfaces inégales.
-Dans le pied plat, l'articulation subtalaire est généralement plus horizontale[1]. 
+Dans le pied plat, l'articulation subtalaire est généralement plus horizontale. 
 </t>
         </is>
       </c>
